--- a/data/soudan.xlsx
+++ b/data/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="288">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -799,6 +799,199 @@
   </si>
   <si>
     <t>2020-09-06</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>2020-09-08</t>
+  </si>
+  <si>
+    <t>2020-09-09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-09-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>2020-09-12</t>
+  </si>
+  <si>
+    <t>2020-09-13</t>
+  </si>
+  <si>
+    <t>2020-09-14</t>
+  </si>
+  <si>
+    <t>2020-09-15</t>
+  </si>
+  <si>
+    <t>2020-09-16</t>
+  </si>
+  <si>
+    <t>2020-09-17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-09-18</t>
+  </si>
+  <si>
+    <t>2020-09-19</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>2020-09-21</t>
+  </si>
+  <si>
+    <t>2020-09-22</t>
+  </si>
+  <si>
+    <t>2020-09-23</t>
+  </si>
+  <si>
+    <t>2020-09-24</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>2020-09-26</t>
+  </si>
+  <si>
+    <t>2020-09-27</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-10-02</t>
+  </si>
+  <si>
+    <t>2020-10-03</t>
+  </si>
+  <si>
+    <t>2020-10-04</t>
+  </si>
+  <si>
+    <t>2020-10-05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-10-06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>2020-10-08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-10-09</t>
+  </si>
+  <si>
+    <t>2020-10-10</t>
+  </si>
+  <si>
+    <t>2020-10-11</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>2020-10-14</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>2020-10-16</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>2020-10-18</t>
+  </si>
+  <si>
+    <t>2020-10-19</t>
+  </si>
+  <si>
+    <t>2020-10-20</t>
+  </si>
+  <si>
+    <t>2020-10-21</t>
+  </si>
+  <si>
+    <t>2020-10-22</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>2020-10-24</t>
+  </si>
+  <si>
+    <t>2020-10-25</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-10-27</t>
+  </si>
+  <si>
+    <t>2020-10-28</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>2020-10-30</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>2020-11-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-11-02</t>
+  </si>
+  <si>
+    <t>2020-11-03</t>
+  </si>
+  <si>
+    <t>2020-11-04</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
   </si>
 </sst>
 </file>
@@ -841,7 +1034,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -852,6 +1045,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF009A2C"/>
         <bgColor rgb="FFDADADA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -932,12 +1131,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -948,13 +1157,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1242,11 +1457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E220"/>
+  <dimension ref="A1:I281"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1275,3724 +1490,4766 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" s="5" customFormat="1">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" s="5" customFormat="1">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="5" customFormat="1">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="5" customFormat="1">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="5" customFormat="1">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="5" customFormat="1">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="5" customFormat="1">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="5" customFormat="1">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="5" customFormat="1">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="5" customFormat="1">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>385</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <v>380</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="5" customFormat="1">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <v>660</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="5" customFormat="1">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <v>534</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="5" customFormat="1">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <v>394</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="5" customFormat="1">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <v>411</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="5" customFormat="1">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <v>280</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="5" customFormat="1">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="5" customFormat="1">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="5" customFormat="1">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="5" customFormat="1">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="5" customFormat="1">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="5" customFormat="1">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <v>355</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="5" customFormat="1">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="5" customFormat="1">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="5" customFormat="1">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="3">
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="5" customFormat="1">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="5" customFormat="1">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="3">
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="5" customFormat="1">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="5" customFormat="1">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="3">
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="5" customFormat="1">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="3">
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="5" customFormat="1">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="3">
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="5" customFormat="1">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="3">
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="5" customFormat="1">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="5" customFormat="1">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="B51" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="5" customFormat="1">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B52" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="5" customFormat="1">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="3">
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="5" customFormat="1">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="B54" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="3">
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="5" customFormat="1">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:5">
+      <c r="A55" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="3">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="5" customFormat="1">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="B56" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="3">
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="5" customFormat="1">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="3">
         <v>226</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="5" customFormat="1">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:5">
+      <c r="A58" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="B58" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="3">
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="5" customFormat="1">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:5">
+      <c r="A59" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="B59" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="3">
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="5" customFormat="1">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="3">
         <v>314</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="5" customFormat="1">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="B61" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="3">
         <v>331</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="5" customFormat="1">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="B62" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="3">
         <v>399</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="5" customFormat="1">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:5">
+      <c r="A63" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="B63" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="3">
         <v>406</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="5" customFormat="1">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="B64" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="3">
         <v>395</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="5" customFormat="1">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:5">
+      <c r="A65" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="B65" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="3">
         <v>308</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="5" customFormat="1">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:5">
+      <c r="A66" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="B66" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="3">
         <v>331</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="5" customFormat="1">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="B67" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="3">
         <v>550</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="5" customFormat="1">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="B68" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="3">
         <v>402</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="5" customFormat="1">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="B69" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="3">
         <v>433</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="5" customFormat="1">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="1:5">
+      <c r="A70" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="B70" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="3">
         <v>463</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="5" customFormat="1">
-      <c r="A71" s="3" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="B71" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="3">
         <v>430</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="5" customFormat="1">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="1:5">
+      <c r="A72" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="B72" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="3">
         <v>343</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="5" customFormat="1">
-      <c r="A73" s="3" t="s">
+    <row r="73" spans="1:5">
+      <c r="A73" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="B73" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="6">
         <v>395</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="5" customFormat="1">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="1:5">
+      <c r="A74" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="B74" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="6">
         <v>629</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="5" customFormat="1">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:5">
+      <c r="A75" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C75" s="2" t="s">
+      <c r="B75" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="6">
         <v>386</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="5" customFormat="1">
-      <c r="A76" s="3" t="s">
+    <row r="76" spans="1:5">
+      <c r="A76" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="B76" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="6">
         <v>463</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="5" customFormat="1">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C77" s="2" t="s">
+      <c r="B77" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="6">
         <v>503</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="5" customFormat="1">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="B78" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="5">
         <v>487</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="5" customFormat="1">
-      <c r="A79" s="3" t="s">
+    <row r="79" spans="1:5">
+      <c r="A79" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C79" s="2" t="s">
+      <c r="B79" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="5">
         <v>339</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="5" customFormat="1">
-      <c r="A80" s="3" t="s">
+    <row r="80" spans="1:5">
+      <c r="A80" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="B80" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="5" customFormat="1">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="1:5">
+      <c r="A81" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C81" s="2" t="s">
+      <c r="B81" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="3">
         <v>556</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="5" customFormat="1">
-      <c r="A82" s="3" t="s">
+    <row r="82" spans="1:5">
+      <c r="A82" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C82" s="2" t="s">
+      <c r="B82" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="3">
         <v>394</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="5" customFormat="1">
-      <c r="A83" s="3" t="s">
+    <row r="83" spans="1:5">
+      <c r="A83" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E83" s="2">
+      <c r="B83" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E83" s="6">
         <v>415</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="5" customFormat="1">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="1:5">
+      <c r="A84" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C84" s="2" t="s">
+      <c r="B84" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="6">
         <v>446</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="5" customFormat="1">
-      <c r="A85" s="3" t="s">
+    <row r="85" spans="1:5">
+      <c r="A85" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C85" s="2" t="s">
+      <c r="B85" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="6">
         <v>394</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="5" customFormat="1">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:5">
+      <c r="A86" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C86" s="2" t="s">
+      <c r="B86" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="5">
         <v>287</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="5" customFormat="1">
-      <c r="A87" s="3" t="s">
+    <row r="87" spans="1:5">
+      <c r="A87" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C87" s="2" t="s">
+      <c r="B87" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="5">
         <v>272</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="5" customFormat="1">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="1:5">
+      <c r="A88" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C88" s="2" t="s">
+      <c r="B88" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="5">
         <v>421</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="5" customFormat="1">
-      <c r="A89" s="3" t="s">
+    <row r="89" spans="1:5">
+      <c r="A89" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C89" s="2" t="s">
+      <c r="B89" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="5">
         <v>291</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="5" customFormat="1">
-      <c r="A90" s="3" t="s">
+    <row r="90" spans="1:5">
+      <c r="A90" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C90" s="2" t="s">
+      <c r="B90" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="5">
         <v>233</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="5" customFormat="1">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="1:5">
+      <c r="A91" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C91" s="2" t="s">
+      <c r="B91" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="5">
         <v>331</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="5" customFormat="1">
-      <c r="A92" s="3" t="s">
+    <row r="92" spans="1:5">
+      <c r="A92" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B92" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C92" s="2" t="s">
+      <c r="B92" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="5">
         <v>272</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="5" customFormat="1">
-      <c r="A93" s="3" t="s">
+    <row r="93" spans="1:5">
+      <c r="A93" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B93" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C93" s="2" t="s">
+      <c r="B93" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="5">
         <v>189</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="5" customFormat="1">
-      <c r="A94" s="3" t="s">
+    <row r="94" spans="1:5">
+      <c r="A94" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C94" s="2" t="s">
+      <c r="B94" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="5">
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="5" customFormat="1">
-      <c r="A95" s="3" t="s">
+    <row r="95" spans="1:5">
+      <c r="A95" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B95" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C95" s="2" t="s">
+      <c r="B95" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="5">
         <v>244</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="5" customFormat="1">
-      <c r="A96" s="3" t="s">
+    <row r="96" spans="1:5">
+      <c r="A96" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B96" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C96" s="2" t="s">
+      <c r="B96" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="5">
         <v>217</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="5" customFormat="1">
-      <c r="A97" s="3" t="s">
+    <row r="97" spans="1:5">
+      <c r="A97" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B97" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C97" s="2" t="s">
+      <c r="B97" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="5">
         <v>295</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="5" customFormat="1">
-      <c r="A98" s="3" t="s">
+    <row r="98" spans="1:5">
+      <c r="A98" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B98" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C98" s="2" t="s">
+      <c r="B98" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="5">
         <v>331</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="5" customFormat="1">
-      <c r="A99" s="3" t="s">
+    <row r="99" spans="1:5">
+      <c r="A99" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B99" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C99" s="2" t="s">
+      <c r="B99" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="5">
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="5" customFormat="1">
-      <c r="A100" s="3" t="s">
+    <row r="100" spans="1:5">
+      <c r="A100" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B100" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C100" s="2" t="s">
+      <c r="B100" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="5">
         <v>237</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="5" customFormat="1">
-      <c r="A101" s="3" t="s">
+    <row r="101" spans="1:5">
+      <c r="A101" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C101" s="2" t="s">
+      <c r="B101" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="5">
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="5" customFormat="1">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="1:5">
+      <c r="A102" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B102" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C102" s="2" t="s">
+      <c r="B102" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="5">
         <v>279</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="5" customFormat="1">
-      <c r="A103" s="3" t="s">
+    <row r="103" spans="1:5">
+      <c r="A103" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B103" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C103" s="2" t="s">
+      <c r="B103" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="6">
         <v>216</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="5" customFormat="1">
-      <c r="A104" s="3" t="s">
+    <row r="104" spans="1:5">
+      <c r="A104" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B104" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C104" s="2" t="s">
+      <c r="B104" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="6">
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="5" customFormat="1">
-      <c r="A105" s="3" t="s">
+    <row r="105" spans="1:5">
+      <c r="A105" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B105" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C105" s="2" t="s">
+      <c r="B105" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="6">
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="5" customFormat="1">
-      <c r="A106" s="3" t="s">
+    <row r="106" spans="1:5">
+      <c r="A106" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B106" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C106" s="2" t="s">
+      <c r="B106" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="5">
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="5" customFormat="1">
-      <c r="A107" s="3" t="s">
+    <row r="107" spans="1:5">
+      <c r="A107" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B107" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C107" s="2" t="s">
+      <c r="B107" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="5">
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="5" customFormat="1">
-      <c r="A108" s="3" t="s">
+    <row r="108" spans="1:5">
+      <c r="A108" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B108" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C108" s="2" t="s">
+      <c r="B108" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E108" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="5" customFormat="1">
-      <c r="A109" s="3" t="s">
+      <c r="E108" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B109" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E109" s="2">
+      <c r="B109" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E109" s="5">
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="5" customFormat="1">
-      <c r="A110" s="3" t="s">
+    <row r="110" spans="1:5">
+      <c r="A110" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B110" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E110" s="2">
+      <c r="B110" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E110" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="5" customFormat="1">
-      <c r="A111" s="3" t="s">
+    <row r="111" spans="1:5">
+      <c r="A111" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B111" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E111" s="2">
+      <c r="B111" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E111" s="5">
         <v>87</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="5" customFormat="1">
-      <c r="A112" s="3" t="s">
+    <row r="112" spans="1:5">
+      <c r="A112" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B112" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E112" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" s="5" customFormat="1">
-      <c r="A113" s="3" t="s">
+      <c r="B112" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E112" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B113" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E113" s="2">
+      <c r="B113" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E113" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:5" s="5" customFormat="1">
-      <c r="A114" s="3" t="s">
+    <row r="114" spans="1:5">
+      <c r="A114" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B114" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E114" s="2">
+      <c r="B114" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E114" s="5">
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="1:5" s="5" customFormat="1">
-      <c r="A115" s="3" t="s">
+    <row r="115" spans="1:5">
+      <c r="A115" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B115" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E115" s="2">
+      <c r="B115" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E115" s="5">
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:5" s="5" customFormat="1">
-      <c r="A116" s="3" t="s">
+    <row r="116" spans="1:5">
+      <c r="A116" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B116" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E116" s="2">
+      <c r="B116" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E116" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="5" customFormat="1">
-      <c r="A117" s="3" t="s">
+    <row r="117" spans="1:5">
+      <c r="A117" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B117" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E117" s="2">
+      <c r="B117" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E117" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:5" s="5" customFormat="1">
-      <c r="A118" s="3" t="s">
+    <row r="118" spans="1:5">
+      <c r="A118" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B118" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E118" s="2">
+      <c r="B118" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E118" s="5">
         <v>89</v>
       </c>
     </row>
-    <row r="119" spans="1:5" s="5" customFormat="1">
-      <c r="A119" s="3" t="s">
+    <row r="119" spans="1:5">
+      <c r="A119" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B119" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E119" s="2">
+      <c r="B119" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E119" s="5">
         <v>74</v>
       </c>
     </row>
-    <row r="120" spans="1:5" s="5" customFormat="1">
-      <c r="A120" s="3" t="s">
+    <row r="120" spans="1:5">
+      <c r="A120" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B120" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E120" s="2">
+      <c r="B120" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E120" s="6">
         <v>105</v>
       </c>
     </row>
-    <row r="121" spans="1:5" s="5" customFormat="1">
-      <c r="A121" s="3" t="s">
+    <row r="121" spans="1:5">
+      <c r="A121" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B121" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E121" s="2">
+      <c r="B121" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E121" s="5">
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="1:5" s="5" customFormat="1">
-      <c r="A122" s="3" t="s">
+    <row r="122" spans="1:5">
+      <c r="A122" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B122" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E122" s="2">
+      <c r="B122" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E122" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="5" customFormat="1">
-      <c r="A123" s="3" t="s">
+    <row r="123" spans="1:5">
+      <c r="A123" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B123" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E123" s="2">
+      <c r="B123" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E123" s="5">
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="1:5" s="5" customFormat="1">
-      <c r="A124" s="3" t="s">
+    <row r="124" spans="1:5">
+      <c r="A124" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B124" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E124" s="2">
+      <c r="B124" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E124" s="5">
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:5" s="5" customFormat="1">
-      <c r="A125" s="3" t="s">
+    <row r="125" spans="1:5">
+      <c r="A125" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B125" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E125" s="2">
+      <c r="B125" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E125" s="5">
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:5" s="5" customFormat="1">
-      <c r="A126" s="3" t="s">
+    <row r="126" spans="1:5">
+      <c r="A126" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B126" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E126" s="2">
+      <c r="B126" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E126" s="5">
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:5" s="5" customFormat="1">
-      <c r="A127" s="3" t="s">
+    <row r="127" spans="1:5">
+      <c r="A127" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B127" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E127" s="2">
+      <c r="B127" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E127" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:5" s="5" customFormat="1">
-      <c r="A128" s="3" t="s">
+    <row r="128" spans="1:5">
+      <c r="A128" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B128" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E128" s="2">
+      <c r="B128" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E128" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="129" spans="1:5" s="5" customFormat="1">
-      <c r="A129" s="3" t="s">
+    <row r="129" spans="1:5">
+      <c r="A129" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B129" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E129" s="2">
+      <c r="B129" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E129" s="6">
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="1:5" s="5" customFormat="1">
-      <c r="A130" s="3" t="s">
+    <row r="130" spans="1:5">
+      <c r="A130" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B130" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E130" s="2">
+      <c r="B130" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E130" s="5">
         <v>134</v>
       </c>
     </row>
-    <row r="131" spans="1:5" s="5" customFormat="1">
-      <c r="A131" s="3" t="s">
+    <row r="131" spans="1:5">
+      <c r="A131" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B131" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E131" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" s="5" customFormat="1">
-      <c r="A132" s="3" t="s">
+      <c r="B131" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E131" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B132" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E132" s="2">
+      <c r="B132" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E132" s="5">
         <v>105</v>
       </c>
     </row>
-    <row r="133" spans="1:5" s="5" customFormat="1">
-      <c r="A133" s="3" t="s">
+    <row r="133" spans="1:5">
+      <c r="A133" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B133" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E133" s="2">
+      <c r="B133" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E133" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="134" spans="1:5" s="5" customFormat="1">
-      <c r="A134" s="3" t="s">
+    <row r="134" spans="1:5">
+      <c r="A134" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B134" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E134" s="2">
+      <c r="B134" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E134" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="135" spans="1:5" s="5" customFormat="1">
-      <c r="A135" s="3" t="s">
+    <row r="135" spans="1:5">
+      <c r="A135" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B135" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E135" s="2">
+      <c r="B135" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E135" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="136" spans="1:5" s="5" customFormat="1">
-      <c r="A136" s="3" t="s">
+    <row r="136" spans="1:5">
+      <c r="A136" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B136" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E136" s="2">
+      <c r="B136" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E136" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="5" customFormat="1">
-      <c r="A137" s="3" t="s">
+    <row r="137" spans="1:5">
+      <c r="A137" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B137" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E137" s="2">
+      <c r="B137" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E137" s="5">
         <v>89</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="5" customFormat="1">
-      <c r="A138" s="3" t="s">
+    <row r="138" spans="1:5">
+      <c r="A138" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B138" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E138" s="2">
+      <c r="B138" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E138" s="5">
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="5" customFormat="1">
-      <c r="A139" s="3" t="s">
+    <row r="139" spans="1:5">
+      <c r="A139" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B139" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E139" s="2">
+      <c r="B139" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E139" s="5">
         <v>78</v>
       </c>
     </row>
-    <row r="140" spans="1:5" s="5" customFormat="1">
-      <c r="A140" s="3" t="s">
+    <row r="140" spans="1:5">
+      <c r="A140" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B140" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E140" s="2">
+      <c r="B140" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E140" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="141" spans="1:5" s="5" customFormat="1">
-      <c r="A141" s="3" t="s">
+    <row r="141" spans="1:5">
+      <c r="A141" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B141" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E141" s="2">
+      <c r="B141" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E141" s="5">
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:5" s="5" customFormat="1">
-      <c r="A142" s="3" t="s">
+    <row r="142" spans="1:5">
+      <c r="A142" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B142" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E142" s="2">
+      <c r="B142" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E142" s="5">
         <v>52</v>
       </c>
     </row>
-    <row r="143" spans="1:5" s="5" customFormat="1">
-      <c r="A143" s="3" t="s">
+    <row r="143" spans="1:5">
+      <c r="A143" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B143" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E143" s="2">
+      <c r="B143" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E143" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:5" s="5" customFormat="1">
-      <c r="A144" s="3" t="s">
+    <row r="144" spans="1:5">
+      <c r="A144" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B144" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E144" s="2">
+      <c r="B144" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E144" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="145" spans="1:5" s="5" customFormat="1">
-      <c r="A145" s="3" t="s">
+    <row r="145" spans="1:5">
+      <c r="A145" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B145" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E145" s="2">
+      <c r="B145" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E145" s="5">
         <v>97</v>
       </c>
     </row>
-    <row r="146" spans="1:5" s="5" customFormat="1">
-      <c r="A146" s="3" t="s">
+    <row r="146" spans="1:5">
+      <c r="A146" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B146" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E146" s="2">
+      <c r="B146" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E146" s="5">
         <v>117</v>
       </c>
     </row>
-    <row r="147" spans="1:5" s="5" customFormat="1">
-      <c r="A147" s="3" t="s">
+    <row r="147" spans="1:5">
+      <c r="A147" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B147" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E147" s="2">
+      <c r="B147" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E147" s="5">
         <v>104</v>
       </c>
     </row>
-    <row r="148" spans="1:5" s="5" customFormat="1">
-      <c r="A148" s="3" t="s">
+    <row r="148" spans="1:5">
+      <c r="A148" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B148" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E148" s="2">
+      <c r="B148" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E148" s="5">
         <v>78</v>
       </c>
     </row>
-    <row r="149" spans="1:5" s="5" customFormat="1">
-      <c r="A149" s="3" t="s">
+    <row r="149" spans="1:5">
+      <c r="A149" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B149" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E149" s="2">
+      <c r="B149" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E149" s="5">
         <v>47</v>
       </c>
     </row>
-    <row r="150" spans="1:5" s="5" customFormat="1">
-      <c r="A150" s="3" t="s">
+    <row r="150" spans="1:5">
+      <c r="A150" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B150" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E150" s="2">
+      <c r="B150" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E150" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="1:5" s="5" customFormat="1">
-      <c r="A151" s="3" t="s">
+    <row r="151" spans="1:5">
+      <c r="A151" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B151" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E151" s="2">
+      <c r="B151" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E151" s="5">
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:5" s="5" customFormat="1">
-      <c r="A152" s="3" t="s">
+    <row r="152" spans="1:5">
+      <c r="A152" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B152" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E152" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" s="5" customFormat="1">
-      <c r="A153" s="3" t="s">
+      <c r="B152" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E152" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B153" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E153" s="2">
+      <c r="B153" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E153" s="5">
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:5" s="5" customFormat="1">
-      <c r="A154" s="3" t="s">
+    <row r="154" spans="1:5">
+      <c r="A154" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B154" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E154" s="2">
+      <c r="B154" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E154" s="6">
         <v>75</v>
       </c>
     </row>
-    <row r="155" spans="1:5" s="5" customFormat="1">
-      <c r="A155" s="3" t="s">
+    <row r="155" spans="1:5">
+      <c r="A155" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B155" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E155" s="2">
+      <c r="B155" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E155" s="5">
         <v>104</v>
       </c>
     </row>
-    <row r="156" spans="1:5" s="5" customFormat="1">
-      <c r="A156" s="3" t="s">
+    <row r="156" spans="1:5">
+      <c r="A156" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B156" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E156" s="2">
+      <c r="B156" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E156" s="5">
         <v>72</v>
       </c>
     </row>
-    <row r="157" spans="1:5" s="5" customFormat="1">
-      <c r="A157" s="3" t="s">
+    <row r="157" spans="1:5">
+      <c r="A157" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B157" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E157" s="2">
+      <c r="B157" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E157" s="5">
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="1:5" s="5" customFormat="1">
-      <c r="A158" s="3" t="s">
+    <row r="158" spans="1:5">
+      <c r="A158" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B158" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E158" s="2">
+      <c r="B158" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E158" s="6">
         <v>122</v>
       </c>
     </row>
-    <row r="159" spans="1:5" s="5" customFormat="1">
-      <c r="A159" s="3" t="s">
+    <row r="159" spans="1:5">
+      <c r="A159" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B159" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E159" s="2">
+      <c r="B159" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E159" s="6">
         <v>101</v>
       </c>
     </row>
-    <row r="160" spans="1:5" s="5" customFormat="1">
-      <c r="A160" s="3" t="s">
+    <row r="160" spans="1:5">
+      <c r="A160" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B160" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E160" s="2">
+      <c r="B160" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E160" s="6">
         <v>103</v>
       </c>
     </row>
-    <row r="161" spans="1:5" s="5" customFormat="1">
-      <c r="A161" s="3" t="s">
+    <row r="161" spans="1:5">
+      <c r="A161" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B161" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E161" s="2">
+      <c r="B161" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E161" s="6">
         <v>98</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="5" customFormat="1">
-      <c r="A162" s="3" t="s">
+    <row r="162" spans="1:5">
+      <c r="A162" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B162" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E162" s="2">
+      <c r="B162" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E162" s="6">
         <v>91</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="5" customFormat="1">
-      <c r="A163" s="3" t="s">
+    <row r="163" spans="1:5">
+      <c r="A163" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B163" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E163" s="2">
+      <c r="B163" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E163" s="6">
         <v>65</v>
       </c>
     </row>
-    <row r="164" spans="1:5" s="5" customFormat="1">
-      <c r="A164" s="3" t="s">
+    <row r="164" spans="1:5">
+      <c r="A164" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B164" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E164" s="2">
+      <c r="B164" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E164" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:5" s="5" customFormat="1">
-      <c r="A165" s="3" t="s">
+    <row r="165" spans="1:5">
+      <c r="A165" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B165" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E165" s="2">
+      <c r="B165" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E165" s="5">
         <v>157</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="5" customFormat="1">
-      <c r="A166" s="3" t="s">
+    <row r="166" spans="1:5">
+      <c r="A166" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B166" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E166" s="2">
+      <c r="B166" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E166" s="5">
         <v>112</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="5" customFormat="1">
-      <c r="A167" s="3" t="s">
+    <row r="167" spans="1:5">
+      <c r="A167" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B167" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E167" s="2">
+      <c r="B167" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E167" s="5">
         <v>128</v>
       </c>
     </row>
-    <row r="168" spans="1:5" s="5" customFormat="1">
-      <c r="A168" s="3" t="s">
+    <row r="168" spans="1:5">
+      <c r="A168" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B168" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E168" s="2">
+      <c r="B168" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E168" s="5">
         <v>125</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="5" customFormat="1">
-      <c r="A169" s="3" t="s">
+    <row r="169" spans="1:5" s="11" customFormat="1">
+      <c r="A169" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B169" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E169" s="2">
+      <c r="B169" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E169" s="5">
         <v>127</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="5" customFormat="1">
-      <c r="A170" s="3" t="s">
+    <row r="170" spans="1:5" s="11" customFormat="1">
+      <c r="A170" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B170" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E170" s="2">
+      <c r="B170" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E170" s="5">
         <v>88</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="5" customFormat="1">
-      <c r="A171" s="3" t="s">
+    <row r="171" spans="1:5" s="11" customFormat="1">
+      <c r="A171" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B171" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E171" s="2">
+      <c r="B171" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E171" s="5">
         <v>119</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="5" customFormat="1">
-      <c r="A172" s="3" t="s">
+    <row r="172" spans="1:5" s="11" customFormat="1">
+      <c r="A172" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B172" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E172" s="2">
+      <c r="B172" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E172" s="5">
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="5" customFormat="1">
-      <c r="A173" s="3" t="s">
+    <row r="173" spans="1:5" s="11" customFormat="1">
+      <c r="A173" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B173" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E173" s="2">
+      <c r="B173" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E173" s="5">
         <v>136</v>
       </c>
     </row>
-    <row r="174" spans="1:5" s="5" customFormat="1">
-      <c r="A174" s="3" t="s">
+    <row r="174" spans="1:5">
+      <c r="A174" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B174" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E174" s="2">
+      <c r="B174" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E174" s="3">
         <v>175</v>
       </c>
     </row>
-    <row r="175" spans="1:5" s="5" customFormat="1">
-      <c r="A175" s="3" t="s">
+    <row r="175" spans="1:5">
+      <c r="A175" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B175" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E175" s="2">
+      <c r="B175" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E175" s="3">
         <v>176</v>
       </c>
     </row>
-    <row r="176" spans="1:5" s="5" customFormat="1">
-      <c r="A176" s="3" t="s">
+    <row r="176" spans="1:5">
+      <c r="A176" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B176" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E176" s="2">
+      <c r="B176" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E176" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="177" spans="1:5" s="5" customFormat="1">
-      <c r="A177" s="3" t="s">
+    <row r="177" spans="1:5">
+      <c r="A177" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B177" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E177" s="2">
+      <c r="B177" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E177" s="3">
         <v>194</v>
       </c>
     </row>
-    <row r="178" spans="1:5" s="5" customFormat="1">
-      <c r="A178" s="3" t="s">
+    <row r="178" spans="1:5">
+      <c r="A178" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B178" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E178" s="2">
+      <c r="B178" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E178" s="3">
         <v>233</v>
       </c>
     </row>
-    <row r="179" spans="1:5" s="5" customFormat="1">
-      <c r="A179" s="3" t="s">
+    <row r="179" spans="1:5">
+      <c r="A179" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B179" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E179" s="2">
+      <c r="B179" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E179" s="3">
         <v>508</v>
       </c>
     </row>
-    <row r="180" spans="1:5" s="5" customFormat="1">
-      <c r="A180" s="3" t="s">
+    <row r="180" spans="1:5">
+      <c r="A180" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B180" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E180" s="2">
+      <c r="B180" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E180" s="3">
         <v>484</v>
       </c>
     </row>
-    <row r="181" spans="1:5" s="5" customFormat="1">
-      <c r="A181" s="3" t="s">
+    <row r="181" spans="1:5">
+      <c r="A181" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B181" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E181" s="2">
+      <c r="B181" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E181" s="3">
         <v>376</v>
       </c>
     </row>
-    <row r="182" spans="1:5" s="5" customFormat="1">
-      <c r="A182" s="3" t="s">
+    <row r="182" spans="1:5">
+      <c r="A182" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B182" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E182" s="2">
+      <c r="B182" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E182" s="3">
         <v>423</v>
       </c>
     </row>
-    <row r="183" spans="1:5" s="5" customFormat="1">
-      <c r="A183" s="3" t="s">
+    <row r="183" spans="1:5">
+      <c r="A183" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B183" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E183" s="2">
+      <c r="B183" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E183" s="3">
         <v>368</v>
       </c>
     </row>
-    <row r="184" spans="1:5" s="5" customFormat="1">
-      <c r="A184" s="3" t="s">
+    <row r="184" spans="1:5">
+      <c r="A184" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B184" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E184" s="2">
+      <c r="B184" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E184" s="3">
         <v>260</v>
       </c>
     </row>
-    <row r="185" spans="1:5" s="5" customFormat="1">
-      <c r="A185" s="3" t="s">
+    <row r="185" spans="1:5">
+      <c r="A185" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B185" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E185" s="2">
+      <c r="B185" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E185" s="3">
         <v>173</v>
       </c>
     </row>
-    <row r="186" spans="1:5" s="5" customFormat="1">
-      <c r="A186" s="3" t="s">
+    <row r="186" spans="1:5">
+      <c r="A186" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B186" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E186" s="2">
+      <c r="B186" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E186" s="3">
         <v>141</v>
       </c>
     </row>
-    <row r="187" spans="1:5" s="5" customFormat="1">
-      <c r="A187" s="3" t="s">
+    <row r="187" spans="1:5">
+      <c r="A187" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B187" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E187" s="2">
+      <c r="B187" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D187" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E187" s="3">
         <v>384</v>
       </c>
     </row>
-    <row r="188" spans="1:5" s="5" customFormat="1">
-      <c r="A188" s="3" t="s">
+    <row r="188" spans="1:5">
+      <c r="A188" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B188" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E188" s="2">
+      <c r="B188" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E188" s="3">
         <v>459</v>
       </c>
     </row>
-    <row r="189" spans="1:5" s="5" customFormat="1">
-      <c r="A189" s="3" t="s">
+    <row r="189" spans="1:5">
+      <c r="A189" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B189" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E189" s="2">
+      <c r="B189" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E189" s="3">
         <v>428</v>
       </c>
     </row>
-    <row r="190" spans="1:5" s="5" customFormat="1">
-      <c r="A190" s="3" t="s">
+    <row r="190" spans="1:5">
+      <c r="A190" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B190" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E190" s="2">
+      <c r="B190" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E190" s="3">
         <v>350</v>
       </c>
     </row>
-    <row r="191" spans="1:5" s="5" customFormat="1">
-      <c r="A191" s="3" t="s">
+    <row r="191" spans="1:5">
+      <c r="A191" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B191" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E191" s="2">
+      <c r="B191" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E191" s="3">
         <v>268</v>
       </c>
     </row>
-    <row r="192" spans="1:5" s="5" customFormat="1">
-      <c r="A192" s="3" t="s">
+    <row r="192" spans="1:5">
+      <c r="A192" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B192" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E192" s="2">
+      <c r="B192" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E192" s="3">
         <v>211</v>
       </c>
     </row>
-    <row r="193" spans="1:5" s="5" customFormat="1">
-      <c r="A193" s="3" t="s">
+    <row r="193" spans="1:5">
+      <c r="A193" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B193" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E193" s="2">
+      <c r="B193" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E193" s="3">
         <v>292</v>
       </c>
     </row>
-    <row r="194" spans="1:5" s="5" customFormat="1">
-      <c r="A194" s="3" t="s">
+    <row r="194" spans="1:5">
+      <c r="A194" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B194" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E194" s="2">
+      <c r="B194" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E194" s="3">
         <v>284</v>
       </c>
     </row>
-    <row r="195" spans="1:5" s="5" customFormat="1">
-      <c r="A195" s="3" t="s">
+    <row r="195" spans="1:5">
+      <c r="A195" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B195" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E195" s="2">
+      <c r="B195" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E195" s="3">
         <v>263</v>
       </c>
     </row>
-    <row r="196" spans="1:5" s="5" customFormat="1">
-      <c r="A196" s="3" t="s">
+    <row r="196" spans="1:5">
+      <c r="A196" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B196" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E196" s="2">
+      <c r="B196" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E196" s="3">
         <v>298</v>
       </c>
     </row>
-    <row r="197" spans="1:5" s="5" customFormat="1">
-      <c r="A197" s="3" t="s">
+    <row r="197" spans="1:5">
+      <c r="A197" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B197" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E197" s="2">
+      <c r="B197" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E197" s="3">
         <v>347</v>
       </c>
     </row>
-    <row r="198" spans="1:5" s="5" customFormat="1">
-      <c r="A198" s="3" t="s">
+    <row r="198" spans="1:5">
+      <c r="A198" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B198" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E198" s="2">
+      <c r="B198" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E198" s="3">
         <v>254</v>
       </c>
     </row>
-    <row r="199" spans="1:5" s="5" customFormat="1">
-      <c r="A199" s="3" t="s">
+    <row r="199" spans="1:5">
+      <c r="A199" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B199" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E199" s="2">
+      <c r="B199" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E199" s="3">
         <v>267</v>
       </c>
     </row>
-    <row r="200" spans="1:5" s="5" customFormat="1">
-      <c r="A200" s="3" t="s">
+    <row r="200" spans="1:5">
+      <c r="A200" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B200" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E200" s="2">
+      <c r="B200" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E200" s="3">
         <v>427</v>
       </c>
     </row>
-    <row r="201" spans="1:5" s="5" customFormat="1">
-      <c r="A201" s="3" t="s">
+    <row r="201" spans="1:5">
+      <c r="A201" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B201" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E201" s="2">
+      <c r="B201" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E201" s="3">
         <v>306</v>
       </c>
     </row>
-    <row r="202" spans="1:5" s="5" customFormat="1">
-      <c r="A202" s="3" t="s">
+    <row r="202" spans="1:5">
+      <c r="A202" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B202" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E202" s="2">
+      <c r="B202" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E202" s="3">
         <v>277</v>
       </c>
     </row>
-    <row r="203" spans="1:5" s="5" customFormat="1">
-      <c r="A203" s="3" t="s">
+    <row r="203" spans="1:5">
+      <c r="A203" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B203" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E203" s="2">
+      <c r="B203" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D203" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E203" s="3">
         <v>283</v>
       </c>
     </row>
-    <row r="204" spans="1:5" s="5" customFormat="1">
-      <c r="A204" s="3" t="s">
+    <row r="204" spans="1:5">
+      <c r="A204" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B204" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E204" s="2">
+      <c r="B204" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E204" s="3">
         <v>254</v>
       </c>
     </row>
-    <row r="205" spans="1:5" s="5" customFormat="1">
-      <c r="A205" s="3" t="s">
+    <row r="205" spans="1:5">
+      <c r="A205" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B205" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E205" s="2">
+      <c r="B205" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D205" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E205" s="3">
         <v>245</v>
       </c>
     </row>
-    <row r="206" spans="1:5" s="5" customFormat="1">
-      <c r="A206" s="3" t="s">
+    <row r="206" spans="1:5">
+      <c r="A206" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B206" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E206" s="2">
+      <c r="B206" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E206" s="3">
         <v>154</v>
       </c>
     </row>
-    <row r="207" spans="1:5" s="5" customFormat="1">
-      <c r="A207" s="3" t="s">
+    <row r="207" spans="1:5">
+      <c r="A207" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B207" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E207" s="2">
+      <c r="B207" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D207" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E207" s="5">
         <v>285</v>
       </c>
     </row>
-    <row r="208" spans="1:5" s="5" customFormat="1">
-      <c r="A208" s="3" t="s">
+    <row r="208" spans="1:5">
+      <c r="A208" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B208" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E208" s="2">
+      <c r="B208" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E208" s="5">
         <v>253</v>
       </c>
     </row>
-    <row r="209" spans="1:5" s="5" customFormat="1">
-      <c r="A209" s="3" t="s">
+    <row r="209" spans="1:9">
+      <c r="A209" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B209" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D209" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E209" s="2">
+      <c r="B209" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D209" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E209" s="5">
         <v>235</v>
       </c>
     </row>
-    <row r="210" spans="1:5" s="5" customFormat="1">
-      <c r="A210" s="3" t="s">
+    <row r="210" spans="1:9">
+      <c r="A210" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B210" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E210" s="2">
+      <c r="B210" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E210" s="5">
         <v>251</v>
       </c>
     </row>
-    <row r="211" spans="1:5" s="5" customFormat="1">
-      <c r="A211" s="3" t="s">
+    <row r="211" spans="1:9">
+      <c r="A211" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B211" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D211" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E211" s="2">
+      <c r="B211" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D211" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E211" s="5">
         <v>235</v>
       </c>
     </row>
-    <row r="212" spans="1:5" s="5" customFormat="1">
-      <c r="A212" s="3" t="s">
+    <row r="212" spans="1:9">
+      <c r="A212" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B212" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E212" s="2">
+      <c r="B212" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D212" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E212" s="5">
         <v>170</v>
       </c>
     </row>
-    <row r="213" spans="1:5" s="5" customFormat="1">
-      <c r="A213" s="3" t="s">
+    <row r="213" spans="1:9">
+      <c r="A213" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B213" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E213" s="2">
+      <c r="B213" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E213" s="5">
         <v>135</v>
       </c>
     </row>
-    <row r="214" spans="1:5" s="5" customFormat="1">
-      <c r="A214" s="3" t="s">
+    <row r="214" spans="1:9">
+      <c r="A214" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B214" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E214" s="2">
+      <c r="B214" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E214" s="5">
         <v>328</v>
       </c>
     </row>
-    <row r="215" spans="1:5" s="5" customFormat="1">
-      <c r="A215" s="6" t="s">
+    <row r="215" spans="1:9" s="11" customFormat="1">
+      <c r="A215" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B215" s="7">
-        <v>430005</v>
-      </c>
-      <c r="C215" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E215" s="7">
+      <c r="B215" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C215" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D215" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E215" s="13">
         <v>211</v>
       </c>
     </row>
-    <row r="216" spans="1:5" s="5" customFormat="1">
-      <c r="A216" s="6" t="s">
+    <row r="216" spans="1:9" s="11" customFormat="1">
+      <c r="A216" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B216" s="7">
-        <v>430005</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E216" s="7">
+      <c r="B216" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D216" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E216" s="13">
         <v>226</v>
       </c>
     </row>
-    <row r="217" spans="1:5" s="5" customFormat="1">
-      <c r="A217" s="6" t="s">
+    <row r="217" spans="1:9" s="11" customFormat="1">
+      <c r="A217" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B217" s="7">
-        <v>430005</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D217" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E217" s="7">
+      <c r="B217" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C217" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D217" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E217" s="13">
         <v>178</v>
       </c>
     </row>
-    <row r="218" spans="1:5" s="5" customFormat="1">
-      <c r="A218" s="6" t="s">
+    <row r="218" spans="1:9">
+      <c r="A218" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B218" s="7">
-        <v>430005</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D218" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E218" s="7">
+      <c r="B218" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C218" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D218" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E218" s="13">
         <v>124</v>
       </c>
     </row>
-    <row r="219" spans="1:5" s="5" customFormat="1">
-      <c r="A219" s="6" t="s">
+    <row r="219" spans="1:9">
+      <c r="A219" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B219" s="7">
-        <v>430005</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D219" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E219" s="7">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" s="5" customFormat="1">
-      <c r="A220" s="6" t="s">
+      <c r="B219" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D219" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E219" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B220" s="7">
-        <v>430005</v>
-      </c>
-      <c r="C220" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D220" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E220" s="7">
-        <v>70</v>
-      </c>
+      <c r="B220" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D220" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E220" s="13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B221" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C221" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D221" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E221" s="3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B222" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C222" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D222" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E222" s="6">
+        <v>130</v>
+      </c>
+      <c r="I222" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B223" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C223" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D223" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E223" s="5">
+        <v>215</v>
+      </c>
+      <c r="F223" s="15"/>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B224" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C224" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D224" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E224" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B225" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C225" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D225" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E225" s="5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B226" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C226" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D226" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E226" s="5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B227" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C227" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D227" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E227" s="5">
+        <v>136</v>
+      </c>
+      <c r="F227" s="15"/>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B228" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C228" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D228" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E228" s="5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B229" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D229" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E229" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" s="11" customFormat="1">
+      <c r="A230" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B230" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D230" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E230" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B231" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D231" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E231" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B232" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C232" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D232" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E232" s="6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B233" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C233" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D233" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E233" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B234" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C234" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D234" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E234" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B235" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C235" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D235" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E235" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B236" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C236" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D236" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E236" s="6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B237" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C237" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D237" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E237" s="6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B238" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C238" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D238" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E238" s="6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B239" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C239" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D239" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E239" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B240" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C240" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D240" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E240" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B241" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C241" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D241" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E241" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B242" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C242" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D242" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E242" s="5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B243" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C243" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D243" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E243" s="5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B244" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E244" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B245" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E245" s="6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B246" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E246" s="6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B247" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E247" s="6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B248" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D248" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E248" s="6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B249" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D249" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E249" s="5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B250" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D250" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E250" s="5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B251" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D251" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E251" s="5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B252" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D252" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E252" s="5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B253" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D253" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E253" s="3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B254" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D254" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E254" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B255" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D255" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E255" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B256" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D256" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E256" s="5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B257" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D257" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E257" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B258" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D258" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E258" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B259" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D259" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E259" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B260" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D260" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E260" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B261" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D261" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E261" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B262" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D262" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E262" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B263" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D263" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E263" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B264" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D264" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E264" s="5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B265" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D265" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E265" s="5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B266" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D266" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E266" s="5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B267" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D267" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E267" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B268" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D268" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E268" s="5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B269" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D269" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E269" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B270" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D270" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E270" s="5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B271" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D271" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E271" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B272" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D272" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E272" s="5">
+        <v>114</v>
+      </c>
+      <c r="F272" s="11"/>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B273" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D273" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E273" s="5">
+        <v>76</v>
+      </c>
+      <c r="F273" s="11"/>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B274" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D274" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E274" s="5">
+        <v>96</v>
+      </c>
+      <c r="F274" s="11"/>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B275" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D275" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E275" s="5">
+        <v>79</v>
+      </c>
+      <c r="F275" s="11"/>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B276" s="5">
+        <v>430006</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D276" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E276" s="5">
+        <v>81</v>
+      </c>
+      <c r="F276" s="11"/>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B277" s="5">
+        <v>430007</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D277" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E277" s="5">
+        <v>113</v>
+      </c>
+      <c r="F277" s="11"/>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B278" s="5">
+        <v>430008</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D278" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E278" s="5">
+        <v>92</v>
+      </c>
+      <c r="F278" s="11"/>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B279" s="5">
+        <v>430009</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D279" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E279" s="5">
+        <v>142</v>
+      </c>
+      <c r="F279" s="11"/>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B280" s="5">
+        <v>430010</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D280" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E280" s="5">
+        <v>75</v>
+      </c>
+      <c r="F280" s="11"/>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="11"/>
+      <c r="B281" s="11"/>
+      <c r="C281" s="11"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="11"/>
+      <c r="F281" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/soudan.xlsx
+++ b/data/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="313">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -992,6 +992,81 @@
   </si>
   <si>
     <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>2020-11-06</t>
+  </si>
+  <si>
+    <t>2020-11-07</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>2020-11-10</t>
+  </si>
+  <si>
+    <t>2020-11-11</t>
+  </si>
+  <si>
+    <t>2020-11-12</t>
+  </si>
+  <si>
+    <t>2020-11-13</t>
+  </si>
+  <si>
+    <t>2020-11-14</t>
+  </si>
+  <si>
+    <t>2020-11-15</t>
+  </si>
+  <si>
+    <t>2020-11-16</t>
+  </si>
+  <si>
+    <t>2020-11-17</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>2020-11-21</t>
+  </si>
+  <si>
+    <t>2020-11-22</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>2020-11-24</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>2020-11-29</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
   </si>
 </sst>
 </file>
@@ -1457,11 +1532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I281"/>
+  <dimension ref="A1:I305"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B267" sqref="B267"/>
+      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A305" sqref="A305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5826,7 +5901,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:7">
       <c r="A257" s="12" t="s">
         <v>264</v>
       </c>
@@ -5843,7 +5918,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:7">
       <c r="A258" s="12" t="s">
         <v>265</v>
       </c>
@@ -5860,7 +5935,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:7">
       <c r="A259" s="12" t="s">
         <v>266</v>
       </c>
@@ -5877,7 +5952,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:7">
       <c r="A260" s="12" t="s">
         <v>267</v>
       </c>
@@ -5894,7 +5969,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:7">
       <c r="A261" s="12" t="s">
         <v>268</v>
       </c>
@@ -5911,7 +5986,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:7">
       <c r="A262" s="12" t="s">
         <v>269</v>
       </c>
@@ -5928,7 +6003,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:7">
       <c r="A263" s="12" t="s">
         <v>270</v>
       </c>
@@ -5945,7 +6020,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:7">
       <c r="A264" s="12" t="s">
         <v>271</v>
       </c>
@@ -5962,7 +6037,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:7">
       <c r="A265" s="12" t="s">
         <v>272</v>
       </c>
@@ -5979,7 +6054,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:7">
       <c r="A266" s="12" t="s">
         <v>273</v>
       </c>
@@ -5996,7 +6071,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:7">
       <c r="A267" s="12" t="s">
         <v>274</v>
       </c>
@@ -6013,7 +6088,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:7">
       <c r="A268" s="12" t="s">
         <v>275</v>
       </c>
@@ -6030,7 +6105,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:7">
       <c r="A269" s="12" t="s">
         <v>276</v>
       </c>
@@ -6047,7 +6122,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:7">
       <c r="A270" s="12" t="s">
         <v>277</v>
       </c>
@@ -6064,7 +6139,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:7">
       <c r="A271" s="12" t="s">
         <v>278</v>
       </c>
@@ -6081,7 +6156,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:7">
       <c r="A272" s="12" t="s">
         <v>279</v>
       </c>
@@ -6098,8 +6173,9 @@
         <v>114</v>
       </c>
       <c r="F272" s="11"/>
-    </row>
-    <row r="273" spans="1:6">
+      <c r="G272" s="11"/>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273" s="12" t="s">
         <v>280</v>
       </c>
@@ -6116,8 +6192,9 @@
         <v>76</v>
       </c>
       <c r="F273" s="11"/>
-    </row>
-    <row r="274" spans="1:6">
+      <c r="G273" s="11"/>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274" s="12" t="s">
         <v>281</v>
       </c>
@@ -6134,8 +6211,9 @@
         <v>96</v>
       </c>
       <c r="F274" s="11"/>
-    </row>
-    <row r="275" spans="1:6">
+      <c r="G274" s="11"/>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275" s="12" t="s">
         <v>282</v>
       </c>
@@ -6152,13 +6230,14 @@
         <v>79</v>
       </c>
       <c r="F275" s="11"/>
-    </row>
-    <row r="276" spans="1:6">
+      <c r="G275" s="11"/>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276" s="12" t="s">
         <v>283</v>
       </c>
       <c r="B276" s="5">
-        <v>430006</v>
+        <v>430005</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>95</v>
@@ -6170,13 +6249,14 @@
         <v>81</v>
       </c>
       <c r="F276" s="11"/>
-    </row>
-    <row r="277" spans="1:6">
+      <c r="G276" s="11"/>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277" s="12" t="s">
         <v>284</v>
       </c>
       <c r="B277" s="5">
-        <v>430007</v>
+        <v>430005</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>95</v>
@@ -6188,13 +6268,14 @@
         <v>113</v>
       </c>
       <c r="F277" s="11"/>
-    </row>
-    <row r="278" spans="1:6">
+      <c r="G277" s="11"/>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278" s="12" t="s">
         <v>285</v>
       </c>
       <c r="B278" s="5">
-        <v>430008</v>
+        <v>430005</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>95</v>
@@ -6206,13 +6287,14 @@
         <v>92</v>
       </c>
       <c r="F278" s="11"/>
-    </row>
-    <row r="279" spans="1:6">
+      <c r="G278" s="11"/>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279" s="12" t="s">
         <v>286</v>
       </c>
       <c r="B279" s="5">
-        <v>430009</v>
+        <v>430005</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>95</v>
@@ -6224,13 +6306,14 @@
         <v>142</v>
       </c>
       <c r="F279" s="11"/>
-    </row>
-    <row r="280" spans="1:6">
+      <c r="G279" s="11"/>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280" s="12" t="s">
         <v>287</v>
       </c>
       <c r="B280" s="5">
-        <v>430010</v>
+        <v>430005</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>95</v>
@@ -6242,14 +6325,464 @@
         <v>75</v>
       </c>
       <c r="F280" s="11"/>
-    </row>
-    <row r="281" spans="1:6">
-      <c r="A281" s="11"/>
-      <c r="B281" s="11"/>
-      <c r="C281" s="11"/>
-      <c r="D281" s="11"/>
-      <c r="E281" s="11"/>
+      <c r="G280" s="11"/>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B281" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D281" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E281" s="5">
+        <v>140</v>
+      </c>
       <c r="F281" s="11"/>
+      <c r="G281" s="11"/>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B282" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D282" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E282" s="5">
+        <v>140</v>
+      </c>
+      <c r="F282" s="11"/>
+      <c r="G282" s="11"/>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B283" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D283" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E283" s="5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B284" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D284" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E284" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B285" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D285" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E285" s="5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B286" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D286" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E286" s="5">
+        <v>90</v>
+      </c>
+      <c r="F286" s="11"/>
+      <c r="G286" s="11"/>
+      <c r="H286" s="11"/>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B287" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D287" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E287" s="5">
+        <v>101</v>
+      </c>
+      <c r="F287" s="11"/>
+      <c r="G287" s="11"/>
+      <c r="H287" s="11"/>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B288" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D288" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E288" s="5">
+        <v>91</v>
+      </c>
+      <c r="F288" s="11"/>
+      <c r="G288" s="11"/>
+      <c r="H288" s="11"/>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B289" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D289" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E289" s="5">
+        <v>82</v>
+      </c>
+      <c r="F289" s="11"/>
+      <c r="G289" s="11"/>
+      <c r="H289" s="11"/>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B290" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D290" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E290" s="5">
+        <v>103</v>
+      </c>
+      <c r="F290" s="11"/>
+      <c r="G290" s="11"/>
+      <c r="H290" s="11"/>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B291" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D291" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E291" s="5">
+        <v>161</v>
+      </c>
+      <c r="F291" s="11"/>
+      <c r="G291" s="11"/>
+      <c r="H291" s="11"/>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B292" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D292" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E292" s="5">
+        <v>111</v>
+      </c>
+      <c r="F292" s="11"/>
+      <c r="G292" s="11"/>
+      <c r="H292" s="11"/>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B293" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D293" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E293" s="5">
+        <v>132</v>
+      </c>
+      <c r="F293" s="11"/>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B294" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D294" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E294" s="5">
+        <v>117</v>
+      </c>
+      <c r="F294" s="11"/>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B295" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D295" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E295" s="5">
+        <v>78</v>
+      </c>
+      <c r="F295" s="11"/>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B296" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D296" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E296" s="5">
+        <v>99</v>
+      </c>
+      <c r="F296" s="11"/>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B297" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D297" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E297" s="5">
+        <v>106</v>
+      </c>
+      <c r="F297" s="11"/>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B298" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D298" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E298" s="5">
+        <v>108</v>
+      </c>
+      <c r="F298" s="11"/>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B299" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D299" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E299" s="6">
+        <v>104</v>
+      </c>
+      <c r="F299" s="11"/>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="B300" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D300" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E300" s="6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B301" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D301" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E301" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="B302" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D302" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E302" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="B303" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D303" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E303" s="6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="B304" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D304" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E304" s="6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B305" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D305" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E305" s="6">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
